--- a/Data/F022.PRD.TIN.AN02.NO.Z.D.xlsx
+++ b/Data/F022.PRD.TIN.AN02.NO.Z.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">

--- a/Data/F022.PRD.TIN.AN02.NO.Z.D.xlsx
+++ b/Data/F022.PRD.TIN.AN02.NO.Z.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
